--- a/OEHHA_consumption_advisories.xlsx
+++ b/OEHHA_consumption_advisories.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pacific\Toxicology\tox\Risk Assessment\Region4_Urban lakes fishers survey\Resources\OEHHA consumption advisories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp-my.sharepoint.com/personal/victoriam_sccwrp_org/Documents/Documents/Github/R4-fishingsurvey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C603F6A-4054-4B97-858C-7F8E6E38F069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2C603F6A-4054-4B97-858C-7F8E6E38F069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23B8C543-7E67-4370-AE51-91F629E4BC1D}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{10BEB2F4-CEF7-4723-880E-C228915FD215}"/>
   </bookViews>
   <sheets>
     <sheet name="Lake advisories" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="EPA serving sizes" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lake advisories'!$A$1:$P$100</definedName>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="85">
   <si>
     <t>Alondra park</t>
   </si>
@@ -53,39 +51,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Serving (oz)</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>1 to 3</t>
-  </si>
-  <si>
-    <t>4 to 7</t>
-  </si>
-  <si>
-    <t>8 to 10</t>
-  </si>
-  <si>
-    <t>download (fda.gov)</t>
-  </si>
-  <si>
-    <t>11 to 18</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>18+</t>
   </si>
   <si>
     <t>Sunfish species</t>
@@ -335,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,12 +316,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -366,47 +325,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -415,41 +338,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -787,7 +682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8065DC66-5CB1-43BB-904A-5954B3925033}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -806,46 +703,46 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>1</v>
@@ -854,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -862,13 +759,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -888,27 +785,27 @@
       <c r="J2">
         <v>113.4</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <f>(E2*J2)/7</f>
         <v>81</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <f>(F2*$I$2)/7</f>
         <v>162</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <f>(G2*$I$2)/7</f>
         <v>226.8</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <f>(H2*$I$2)/7</f>
         <v>226.8</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>85</v>
+      <c r="O2" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="Q2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -916,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -942,27 +839,27 @@
       <c r="J3">
         <v>113.4</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f>(E3*J3)/7</f>
         <v>16.2</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <f>(F3*$I$3)/7</f>
         <v>32.4</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <f>(G3*$I$3)/7</f>
         <v>64.8</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <f>(H3*$I$3)/7</f>
         <v>64.8</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>85</v>
+      <c r="O3" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="Q3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -970,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -996,41 +893,41 @@
       <c r="J4">
         <v>113.4</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f>(E4*J4)/7</f>
         <v>16.2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <f>(F4*$I$4)/7</f>
         <v>32.4</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>(G4*$I$4)/7</f>
         <v>32.4</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <f>(H4*$I$4)/7</f>
         <v>32.4</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>85</v>
+      <c r="O4" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="Q4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1050,41 +947,41 @@
       <c r="J5">
         <v>113.4</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" ref="K5:K8" si="0">(E5*J5)/7</f>
         <v>81</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <f t="shared" ref="L5:L8" si="1">(F5*$I$4)/7</f>
         <v>162</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <f t="shared" ref="M5:M8" si="2">(G5*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <f t="shared" ref="N5:N9" si="3">(H5*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>86</v>
+      <c r="O5" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1104,41 +1001,41 @@
       <c r="J6">
         <v>113.4</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <f t="shared" si="3"/>
         <v>162</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>86</v>
+      <c r="O6" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="Q6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1158,41 +1055,41 @@
       <c r="J7">
         <v>113.4</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>16.2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <f t="shared" si="1"/>
         <v>32.4</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <f t="shared" si="2"/>
         <v>64.8</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <f t="shared" si="3"/>
         <v>64.8</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>86</v>
+      <c r="O7" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="Q7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1212,41 +1109,41 @@
       <c r="J8">
         <v>113.4</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="0"/>
         <v>16.2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <f t="shared" si="1"/>
         <v>32.4</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <f t="shared" si="2"/>
         <v>64.8</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <f t="shared" si="3"/>
         <v>64.8</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>86</v>
+      <c r="O8" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -1266,41 +1163,41 @@
       <c r="J9">
         <v>113.4</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" ref="K9:K21" si="4">(E9*J9)/7</f>
         <v>113.4</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <f t="shared" ref="L9:L21" si="5">(F9*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <f t="shared" ref="M9:M21" si="6">(G9*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <f t="shared" si="3"/>
         <v>226.8</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>51</v>
+      <c r="O9" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="Q9" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -1320,41 +1217,41 @@
       <c r="J10">
         <v>113.4</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="4"/>
         <v>113.4</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <f t="shared" si="5"/>
         <v>226.8</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <f t="shared" si="6"/>
         <v>226.8</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <f t="shared" ref="N10:N21" si="7">(H10*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>51</v>
+      <c r="O10" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="Q10" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1374,41 +1271,41 @@
       <c r="J11">
         <v>113.4</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="4"/>
         <v>113.4</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <f t="shared" si="5"/>
         <v>226.8</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <f t="shared" si="6"/>
         <v>226.8</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <f t="shared" si="7"/>
         <v>226.8</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>51</v>
+      <c r="O11" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="Q11" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -1428,41 +1325,41 @@
       <c r="J12">
         <v>113.4</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f t="shared" si="4"/>
         <v>113.4</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <f t="shared" si="5"/>
         <v>226.8</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <f t="shared" si="6"/>
         <v>226.8</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <f t="shared" si="7"/>
         <v>226.8</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>51</v>
+      <c r="O12" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="Q12" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1482,41 +1379,41 @@
       <c r="J13">
         <v>113.4</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" si="4"/>
         <v>32.4</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <f t="shared" si="5"/>
         <v>64.8</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <f t="shared" si="6"/>
         <v>64.8</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <f t="shared" si="7"/>
         <v>64.8</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>51</v>
+      <c r="O13" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="Q13" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1536,41 +1433,41 @@
       <c r="J14">
         <v>113.4</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <f t="shared" si="4"/>
         <v>16.2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <f t="shared" si="5"/>
         <v>32.4</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <f t="shared" si="6"/>
         <v>64.8</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <f t="shared" si="7"/>
         <v>64.8</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>51</v>
+      <c r="O14" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="Q14" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>7</v>
@@ -1590,41 +1487,41 @@
       <c r="J15">
         <v>113.4</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="4"/>
         <v>113.4</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <f t="shared" si="5"/>
         <v>226.8</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <f t="shared" si="6"/>
         <v>226.8</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <f t="shared" si="7"/>
         <v>226.8</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>52</v>
+      <c r="O15" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="Q15" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1644,41 +1541,41 @@
       <c r="J16">
         <v>113.4</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" si="4"/>
         <v>32.4</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <f t="shared" si="5"/>
         <v>64.8</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <f t="shared" si="6"/>
         <v>226.8</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <f t="shared" si="7"/>
         <v>226.8</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>52</v>
+      <c r="O16" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="Q16" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1698,41 +1595,41 @@
       <c r="J17">
         <v>113.4</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="4"/>
         <v>16.2</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <f t="shared" si="5"/>
         <v>32.4</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <f t="shared" si="6"/>
         <v>129.6</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <f t="shared" si="7"/>
         <v>129.6</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>52</v>
+      <c r="O17" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="Q17" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1752,41 +1649,41 @@
       <c r="J18">
         <v>113.4</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" si="4"/>
         <v>16.2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <f t="shared" si="5"/>
         <v>32.4</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <f t="shared" si="6"/>
         <v>129.6</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <f t="shared" si="7"/>
         <v>129.6</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>52</v>
+      <c r="O18" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="Q18" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1806,41 +1703,41 @@
       <c r="J19">
         <v>113.4</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <f t="shared" si="4"/>
         <v>48.600000000000009</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <f t="shared" si="5"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <f t="shared" si="6"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <f t="shared" si="7"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="O19" s="3" t="s">
-        <v>52</v>
+      <c r="O19" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="Q19" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1860,41 +1757,41 @@
       <c r="J20">
         <v>113.4</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <f t="shared" si="6"/>
         <v>32.4</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <f t="shared" si="7"/>
         <v>32.4</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>52</v>
+      <c r="O20" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="Q20" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1914,41 +1811,41 @@
       <c r="J21">
         <v>113.4</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <f t="shared" si="6"/>
         <v>32.4</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <f t="shared" si="7"/>
         <v>32.4</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>52</v>
+      <c r="O21" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="Q21" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1968,41 +1865,41 @@
       <c r="J22">
         <v>113.4</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <f t="shared" ref="K22:K25" si="8">(E22*J22)/7</f>
         <v>48.600000000000009</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <f t="shared" ref="L22:L25" si="9">(F22*$I$4)/7</f>
         <v>97.200000000000017</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <f t="shared" ref="M22:M25" si="10">(G22*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="3">
         <f t="shared" ref="N22:N25" si="11">(H22*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>70</v>
+      <c r="O22" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="Q22" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -2022,41 +1919,41 @@
       <c r="J23">
         <v>113.4</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <f t="shared" si="8"/>
         <v>32.4</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <f t="shared" si="9"/>
         <v>64.8</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <f t="shared" si="10"/>
         <v>194.40000000000003</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <f t="shared" si="11"/>
         <v>194.40000000000003</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>70</v>
+      <c r="O23" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="Q23" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2076,41 +1973,41 @@
       <c r="J24">
         <v>113.4</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <f t="shared" si="8"/>
         <v>16.2</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <f t="shared" si="9"/>
         <v>32.4</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <f t="shared" si="10"/>
         <v>32.4</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <f t="shared" si="11"/>
         <v>32.4</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>70</v>
+      <c r="O24" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="Q24" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2130,41 +2027,41 @@
       <c r="J25">
         <v>113.4</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <f t="shared" si="10"/>
         <v>32.4</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <f t="shared" si="11"/>
         <v>32.4</v>
       </c>
-      <c r="O25" s="3" t="s">
-        <v>70</v>
+      <c r="O25" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="Q25" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>7</v>
@@ -2184,41 +2081,41 @@
       <c r="J26">
         <v>113.4</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <f>(E26*J26)/7</f>
         <v>113.4</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="3">
         <f>(F26*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <f>(G26*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <f>(H26*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>31</v>
+      <c r="O26" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="Q26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -2238,41 +2135,41 @@
       <c r="J27">
         <v>113.4</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <f t="shared" ref="K27:K29" si="12">(E27*J27)/7</f>
         <v>113.4</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="3">
         <f t="shared" ref="L27:L29" si="13">(F27*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <f t="shared" ref="M27:M29" si="14">(G27*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <f t="shared" ref="N27:N29" si="15">(H27*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>31</v>
+      <c r="O27" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="Q27" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2292,41 +2189,41 @@
       <c r="J28">
         <v>113.4</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <f t="shared" si="12"/>
         <v>32.4</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="3">
         <f t="shared" si="13"/>
         <v>64.8</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <f t="shared" si="14"/>
         <v>129.6</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <f t="shared" si="15"/>
         <v>129.6</v>
       </c>
-      <c r="O28" s="3" t="s">
-        <v>31</v>
+      <c r="O28" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="Q28" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2346,41 +2243,41 @@
       <c r="J29">
         <v>113.4</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <f t="shared" si="12"/>
         <v>16.2</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="3">
         <f t="shared" si="13"/>
         <v>32.4</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <f t="shared" si="14"/>
         <v>64.8</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <f t="shared" si="15"/>
         <v>64.8</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>31</v>
+      <c r="O29" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="Q29" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -2400,41 +2297,41 @@
       <c r="J30">
         <v>113.4</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <f>(E30*J30)/7</f>
         <v>113.4</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="3">
         <f>(F30*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <f>(G30*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <f>(H30*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="O30" s="3" t="s">
-        <v>87</v>
+      <c r="O30" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Q30" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -2454,41 +2351,41 @@
       <c r="J31">
         <v>113.4</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <f t="shared" ref="K31:K34" si="16">(E31*J31)/7</f>
         <v>97.200000000000017</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="3">
         <f t="shared" ref="L31:L34" si="17">(F31*$I$4)/7</f>
         <v>194.40000000000003</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="3">
         <f t="shared" ref="M31:M34" si="18">(G31*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <f t="shared" ref="N31:N34" si="19">(H31*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>87</v>
+      <c r="O31" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Q31" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2508,41 +2405,41 @@
       <c r="J32">
         <v>113.4</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <f t="shared" si="16"/>
         <v>32.4</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="3">
         <f t="shared" si="17"/>
         <v>64.8</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="3">
         <f t="shared" si="18"/>
         <v>162</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="3">
         <f t="shared" si="19"/>
         <v>162</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>87</v>
+      <c r="O32" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Q32" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
         <v>73</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" t="s">
-        <v>84</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2562,41 +2459,41 @@
       <c r="J33">
         <v>113.4</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <f t="shared" si="16"/>
         <v>16.2</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="3">
         <f t="shared" si="17"/>
         <v>32.4</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="3">
         <f t="shared" si="18"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="3">
         <f t="shared" si="19"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>87</v>
+      <c r="O33" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Q33" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2616,41 +2513,41 @@
       <c r="J34">
         <v>113.4</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <f t="shared" si="16"/>
         <v>16.2</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="3">
         <f t="shared" si="17"/>
         <v>32.4</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="3">
         <f t="shared" si="18"/>
         <v>64.8</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="3">
         <f t="shared" si="19"/>
         <v>64.8</v>
       </c>
-      <c r="O34" s="3" t="s">
-        <v>87</v>
+      <c r="O34" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Q34" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -2670,41 +2567,41 @@
       <c r="J35">
         <v>113.4</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <f>(E35*J35)/7</f>
         <v>48.600000000000009</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="3">
         <f>(F35*$I$4)/7</f>
         <v>97.200000000000017</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="3">
         <f>(G35*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="3">
         <f>(H35*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>66</v>
+      <c r="O35" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="Q35" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2724,41 +2621,41 @@
       <c r="J36">
         <v>113.4</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="3">
         <f t="shared" ref="K36:K39" si="20">(E36*J36)/7</f>
         <v>16.2</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="3">
         <f t="shared" ref="L36:L39" si="21">(F36*$I$4)/7</f>
         <v>32.4</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="3">
         <f t="shared" ref="M36:M39" si="22">(G36*$I$4)/7</f>
         <v>64.8</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="3">
         <f t="shared" ref="N36:N39" si="23">(H36*$I$4)/7</f>
         <v>64.8</v>
       </c>
-      <c r="O36" s="3" t="s">
-        <v>66</v>
+      <c r="O36" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="Q36" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2778,41 +2675,41 @@
       <c r="J37">
         <v>113.4</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="3">
         <f t="shared" si="20"/>
         <v>16.2</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="3">
         <f t="shared" si="21"/>
         <v>32.4</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="3">
         <f t="shared" si="22"/>
         <v>64.8</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="3">
         <f t="shared" si="23"/>
         <v>64.8</v>
       </c>
-      <c r="O37" s="3" t="s">
-        <v>66</v>
+      <c r="O37" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="Q37" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>7</v>
@@ -2832,41 +2729,41 @@
       <c r="J38">
         <v>113.4</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="3">
         <f t="shared" si="20"/>
         <v>113.4</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="3">
         <f t="shared" si="21"/>
         <v>226.8</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="3">
         <f t="shared" si="22"/>
         <v>226.8</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="3">
         <f t="shared" si="23"/>
         <v>226.8</v>
       </c>
-      <c r="O38" s="3" t="s">
-        <v>38</v>
+      <c r="O38" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="Q38" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>7</v>
@@ -2886,41 +2783,41 @@
       <c r="J39">
         <v>113.4</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="3">
         <f t="shared" si="20"/>
         <v>113.4</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="3">
         <f t="shared" si="21"/>
         <v>226.8</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="3">
         <f t="shared" si="22"/>
         <v>226.8</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="3">
         <f t="shared" si="23"/>
         <v>226.8</v>
       </c>
-      <c r="O39" s="3" t="s">
-        <v>38</v>
+      <c r="O39" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="Q39" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>6</v>
@@ -2940,41 +2837,41 @@
       <c r="J40">
         <v>113.4</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="3">
         <f>(E40*J40)/7</f>
         <v>97.200000000000017</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="3">
         <f>(F40*$I$4)/7</f>
         <v>194.40000000000003</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="3">
         <f>(G40*$I$4)/7</f>
         <v>194.40000000000003</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="3">
         <f>(H40*$I$4)/7</f>
         <v>194.40000000000003</v>
       </c>
-      <c r="O40" s="3" t="s">
-        <v>38</v>
+      <c r="O40" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="Q40" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <v>6</v>
@@ -2994,41 +2891,41 @@
       <c r="J41">
         <v>113.4</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="3">
         <f t="shared" ref="K41:K43" si="24">(E41*J41)/7</f>
         <v>97.200000000000017</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="3">
         <f t="shared" ref="L41:L43" si="25">(F41*$I$4)/7</f>
         <v>194.40000000000003</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="3">
         <f t="shared" ref="M41:M43" si="26">(G41*$I$4)/7</f>
         <v>194.40000000000003</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="3">
         <f t="shared" ref="N41:N43" si="27">(H41*$I$4)/7</f>
         <v>194.40000000000003</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>38</v>
+      <c r="O41" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="Q41" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -3048,41 +2945,41 @@
       <c r="J42">
         <v>113.4</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="3">
         <f t="shared" si="24"/>
         <v>32.4</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="3">
         <f t="shared" si="25"/>
         <v>64.8</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42" s="3">
         <f t="shared" si="26"/>
         <v>129.6</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="3">
         <f t="shared" si="27"/>
         <v>129.6</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>38</v>
+      <c r="O42" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="Q42" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -3102,41 +2999,41 @@
       <c r="J43">
         <v>113.4</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="3">
         <f t="shared" si="24"/>
         <v>48.600000000000009</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="3">
         <f t="shared" si="25"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43" s="3">
         <f t="shared" si="26"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="3">
         <f t="shared" si="27"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>38</v>
+      <c r="O43" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="Q43" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3156,41 +3053,41 @@
       <c r="J44">
         <v>113.4</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="3">
         <f>(E44*J44)/7</f>
         <v>16.2</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="3">
         <f>(F44*$I$4)/7</f>
         <v>32.4</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M44" s="3">
         <f>(G44*$I$4)/7</f>
         <v>64.8</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N44" s="3">
         <f>(H44*$I$4)/7</f>
         <v>64.8</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>38</v>
+      <c r="O44" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="Q44" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E45">
         <v>7</v>
@@ -3210,41 +3107,41 @@
       <c r="J45">
         <v>113.4</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="3">
         <f t="shared" ref="K45:K48" si="28">(E45*J45)/7</f>
         <v>113.4</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="3">
         <f t="shared" ref="L45:L48" si="29">(F45*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M45" s="3">
         <f t="shared" ref="M45:M48" si="30">(G45*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N45" s="3">
         <f t="shared" ref="N45:N48" si="31">(H45*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>88</v>
+      <c r="O45" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="Q45" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <v>7</v>
@@ -3264,41 +3161,41 @@
       <c r="J46">
         <v>113.4</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="3">
         <f t="shared" si="28"/>
         <v>113.4</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46" s="3">
         <f t="shared" si="29"/>
         <v>226.8</v>
       </c>
-      <c r="M46" s="4">
+      <c r="M46" s="3">
         <f t="shared" si="30"/>
         <v>226.8</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N46" s="3">
         <f t="shared" si="31"/>
         <v>226.8</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>88</v>
+      <c r="O46" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="Q46" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -3318,41 +3215,41 @@
       <c r="J47">
         <v>113.4</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="3">
         <f t="shared" si="28"/>
         <v>32.4</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L47" s="3">
         <f t="shared" si="29"/>
         <v>64.8</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47" s="3">
         <f t="shared" si="30"/>
         <v>162</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N47" s="3">
         <f t="shared" si="31"/>
         <v>162</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>88</v>
+      <c r="O47" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="Q47" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3372,27 +3269,27 @@
       <c r="J48">
         <v>113.4</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="3">
         <f t="shared" si="28"/>
         <v>16.2</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="3">
         <f t="shared" si="29"/>
         <v>32.4</v>
       </c>
-      <c r="M48" s="4">
+      <c r="M48" s="3">
         <f t="shared" si="30"/>
         <v>32.4</v>
       </c>
-      <c r="N48" s="4">
+      <c r="N48" s="3">
         <f t="shared" si="31"/>
         <v>32.4</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>88</v>
+      <c r="O48" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="Q48" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -3400,13 +3297,13 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <v>7</v>
@@ -3426,27 +3323,27 @@
       <c r="J49">
         <v>113.4</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="3">
         <f t="shared" ref="K49:K65" si="32">(E49*J49)/7</f>
         <v>113.4</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="3">
         <f t="shared" ref="L49:L65" si="33">(F49*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M49" s="3">
         <f t="shared" ref="M49:M65" si="34">(G49*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N49" s="3">
         <f t="shared" ref="N49:N65" si="35">(H49*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>89</v>
+      <c r="O49" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="Q49" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -3454,13 +3351,13 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E50">
         <v>5</v>
@@ -3480,27 +3377,27 @@
       <c r="J50">
         <v>113.4</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="3">
         <f t="shared" si="32"/>
         <v>81</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="3">
         <f t="shared" si="33"/>
         <v>162</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50" s="3">
         <f t="shared" si="34"/>
         <v>162</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="3">
         <f t="shared" si="35"/>
         <v>162</v>
       </c>
-      <c r="O50" s="3" t="s">
-        <v>89</v>
+      <c r="O50" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="Q50" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -3508,13 +3405,13 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3534,27 +3431,27 @@
       <c r="J51">
         <v>113.4</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="3">
         <f t="shared" si="32"/>
         <v>16.2</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51" s="3">
         <f t="shared" si="33"/>
         <v>32.4</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M51" s="3">
         <f t="shared" si="34"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N51" s="3">
         <f t="shared" si="35"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="O51" s="3" t="s">
-        <v>89</v>
+      <c r="O51" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="Q51" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -3562,13 +3459,13 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3588,41 +3485,41 @@
       <c r="J52">
         <v>113.4</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="3">
         <f t="shared" si="32"/>
         <v>16.2</v>
       </c>
-      <c r="L52" s="4">
+      <c r="L52" s="3">
         <f t="shared" si="33"/>
         <v>32.4</v>
       </c>
-      <c r="M52" s="4">
+      <c r="M52" s="3">
         <f t="shared" si="34"/>
         <v>32.4</v>
       </c>
-      <c r="N52" s="4">
+      <c r="N52" s="3">
         <f t="shared" si="35"/>
         <v>32.4</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>89</v>
+      <c r="O52" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="Q52" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3642,41 +3539,41 @@
       <c r="J53">
         <v>113.4</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="3">
         <f t="shared" si="32"/>
         <v>16.2</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53" s="3">
         <f t="shared" si="33"/>
         <v>32.4</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M53" s="3">
         <f t="shared" si="34"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="3">
         <f t="shared" si="35"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="O53" s="3" t="s">
-        <v>43</v>
+      <c r="O53" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q53" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3696,41 +3593,41 @@
       <c r="J54">
         <v>113.4</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54" s="3">
         <f t="shared" si="32"/>
         <v>16.2</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L54" s="3">
         <f t="shared" si="33"/>
         <v>32.4</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M54" s="3">
         <f t="shared" si="34"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="N54" s="4">
+      <c r="N54" s="3">
         <f t="shared" si="35"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>43</v>
+      <c r="O54" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q54" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3750,41 +3647,41 @@
       <c r="J55">
         <v>113.4</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55" s="3">
         <f t="shared" si="32"/>
         <v>16.2</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L55" s="3">
         <f t="shared" si="33"/>
         <v>32.4</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55" s="3">
         <f t="shared" si="34"/>
         <v>64.8</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N55" s="3">
         <f t="shared" si="35"/>
         <v>64.8</v>
       </c>
-      <c r="O55" s="3" t="s">
-        <v>43</v>
+      <c r="O55" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q55" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3804,41 +3701,41 @@
       <c r="J56">
         <v>113.4</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56" s="3">
         <f t="shared" si="32"/>
         <v>16.2</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L56" s="3">
         <f t="shared" si="33"/>
         <v>32.4</v>
       </c>
-      <c r="M56" s="4">
+      <c r="M56" s="3">
         <f t="shared" si="34"/>
         <v>64.8</v>
       </c>
-      <c r="N56" s="4">
+      <c r="N56" s="3">
         <f t="shared" si="35"/>
         <v>64.8</v>
       </c>
-      <c r="O56" s="3" t="s">
-        <v>43</v>
+      <c r="O56" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q56" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3858,41 +3755,41 @@
       <c r="J57">
         <v>113.4</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="3">
         <f t="shared" si="32"/>
         <v>16.2</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57" s="3">
         <f t="shared" si="33"/>
         <v>32.4</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M57" s="3">
         <f t="shared" si="34"/>
         <v>64.8</v>
       </c>
-      <c r="N57" s="4">
+      <c r="N57" s="3">
         <f t="shared" si="35"/>
         <v>64.8</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>43</v>
+      <c r="O57" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q57" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3912,41 +3809,41 @@
       <c r="J58">
         <v>113.4</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="3">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L58" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="M58" s="4">
+      <c r="M58" s="3">
         <f t="shared" si="34"/>
         <v>32.4</v>
       </c>
-      <c r="N58" s="4">
+      <c r="N58" s="3">
         <f t="shared" si="35"/>
         <v>32.4</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>43</v>
+      <c r="O58" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q58" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3966,41 +3863,41 @@
       <c r="J59">
         <v>113.4</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K59" s="3">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L59" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="M59" s="4">
+      <c r="M59" s="3">
         <f t="shared" si="34"/>
         <v>32.4</v>
       </c>
-      <c r="N59" s="4">
+      <c r="N59" s="3">
         <f t="shared" si="35"/>
         <v>32.4</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>43</v>
+      <c r="O59" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q59" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4020,41 +3917,41 @@
       <c r="J60">
         <v>113.4</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60" s="3">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L60" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="M60" s="4">
+      <c r="M60" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="N60" s="4">
+      <c r="N60" s="3">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>43</v>
+      <c r="O60" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q60" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -4074,41 +3971,41 @@
       <c r="J61">
         <v>113.4</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K61" s="3">
         <f t="shared" si="32"/>
         <v>32.4</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61" s="3">
         <f t="shared" si="33"/>
         <v>64.8</v>
       </c>
-      <c r="M61" s="4">
+      <c r="M61" s="3">
         <f t="shared" si="34"/>
         <v>226.8</v>
       </c>
-      <c r="N61" s="4">
+      <c r="N61" s="3">
         <f t="shared" si="35"/>
         <v>226.8</v>
       </c>
-      <c r="O61" s="3" t="s">
-        <v>90</v>
+      <c r="O61" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="Q61" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E62">
         <v>5</v>
@@ -4128,41 +4025,41 @@
       <c r="J62">
         <v>113.4</v>
       </c>
-      <c r="K62" s="4">
+      <c r="K62" s="3">
         <f t="shared" si="32"/>
         <v>81</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L62" s="3">
         <f t="shared" si="33"/>
         <v>162</v>
       </c>
-      <c r="M62" s="4">
+      <c r="M62" s="3">
         <f t="shared" si="34"/>
         <v>162</v>
       </c>
-      <c r="N62" s="4">
+      <c r="N62" s="3">
         <f t="shared" si="35"/>
         <v>162</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>90</v>
+      <c r="O62" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="Q62" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4182,41 +4079,41 @@
       <c r="J63">
         <v>113.4</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K63" s="3">
         <f t="shared" si="32"/>
         <v>16.2</v>
       </c>
-      <c r="L63" s="4">
+      <c r="L63" s="3">
         <f t="shared" si="33"/>
         <v>32.4</v>
       </c>
-      <c r="M63" s="4">
+      <c r="M63" s="3">
         <f t="shared" si="34"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="N63" s="4">
+      <c r="N63" s="3">
         <f t="shared" si="35"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="O63" s="3" t="s">
-        <v>90</v>
+      <c r="O63" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="Q63" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4236,41 +4133,41 @@
       <c r="J64">
         <v>113.4</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K64" s="3">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="L64" s="4">
+      <c r="L64" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="M64" s="4">
+      <c r="M64" s="3">
         <f t="shared" si="34"/>
         <v>32.4</v>
       </c>
-      <c r="N64" s="4">
+      <c r="N64" s="3">
         <f t="shared" si="35"/>
         <v>32.4</v>
       </c>
-      <c r="O64" s="3" t="s">
-        <v>90</v>
+      <c r="O64" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="Q64" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4290,42 +4187,42 @@
       <c r="J65">
         <v>113.4</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K65" s="3">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L65" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="M65" s="4">
+      <c r="M65" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="N65" s="4">
+      <c r="N65" s="3">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="O65" s="3" t="s">
-        <v>90</v>
+      <c r="O65" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="Q65" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
         <v>72</v>
       </c>
-      <c r="C66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" t="s">
-        <v>83</v>
-      </c>
       <c r="E66">
         <v>7</v>
       </c>
@@ -4344,41 +4241,41 @@
       <c r="J66">
         <v>113.4</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K66" s="3">
         <f t="shared" ref="K66:K70" si="36">(E66*J66)/7</f>
         <v>113.4</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L66" s="3">
         <f t="shared" ref="L66:L70" si="37">(F66*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="M66" s="4">
+      <c r="M66" s="3">
         <f t="shared" ref="M66:M70" si="38">(G66*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="N66" s="4">
+      <c r="N66" s="3">
         <f t="shared" ref="N66:N70" si="39">(H66*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>91</v>
+      <c r="O66" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="Q66" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E67">
         <v>7</v>
@@ -4398,41 +4295,41 @@
       <c r="J67">
         <v>113.4</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K67" s="3">
         <f t="shared" si="36"/>
         <v>113.4</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L67" s="3">
         <f t="shared" si="37"/>
         <v>226.8</v>
       </c>
-      <c r="M67" s="4">
+      <c r="M67" s="3">
         <f t="shared" si="38"/>
         <v>226.8</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N67" s="3">
         <f t="shared" si="39"/>
         <v>226.8</v>
       </c>
-      <c r="O67" s="3" t="s">
-        <v>91</v>
+      <c r="O67" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="Q67" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>7</v>
@@ -4452,41 +4349,41 @@
       <c r="J68">
         <v>113.4</v>
       </c>
-      <c r="K68" s="4">
+      <c r="K68" s="3">
         <f t="shared" si="36"/>
         <v>113.4</v>
       </c>
-      <c r="L68" s="4">
+      <c r="L68" s="3">
         <f t="shared" si="37"/>
         <v>226.8</v>
       </c>
-      <c r="M68" s="4">
+      <c r="M68" s="3">
         <f t="shared" si="38"/>
         <v>226.8</v>
       </c>
-      <c r="N68" s="4">
+      <c r="N68" s="3">
         <f t="shared" si="39"/>
         <v>226.8</v>
       </c>
-      <c r="O68" s="3" t="s">
-        <v>91</v>
+      <c r="O68" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="Q68" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E69">
         <v>6</v>
@@ -4506,41 +4403,41 @@
       <c r="J69">
         <v>113.4</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K69" s="3">
         <f t="shared" si="36"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L69" s="3">
         <f t="shared" si="37"/>
         <v>194.40000000000003</v>
       </c>
-      <c r="M69" s="4">
+      <c r="M69" s="3">
         <f t="shared" si="38"/>
         <v>226.8</v>
       </c>
-      <c r="N69" s="4">
+      <c r="N69" s="3">
         <f t="shared" si="39"/>
         <v>226.8</v>
       </c>
-      <c r="O69" s="3" t="s">
-        <v>91</v>
+      <c r="O69" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="Q69" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E70">
         <v>4</v>
@@ -4560,41 +4457,41 @@
       <c r="J70">
         <v>113.4</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K70" s="3">
         <f t="shared" si="36"/>
         <v>64.8</v>
       </c>
-      <c r="L70" s="4">
+      <c r="L70" s="3">
         <f t="shared" si="37"/>
         <v>129.6</v>
       </c>
-      <c r="M70" s="4">
+      <c r="M70" s="3">
         <f t="shared" si="38"/>
         <v>226.8</v>
       </c>
-      <c r="N70" s="4">
+      <c r="N70" s="3">
         <f t="shared" si="39"/>
         <v>226.8</v>
       </c>
-      <c r="O70" s="3" t="s">
-        <v>91</v>
+      <c r="O70" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="Q70" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E71">
         <v>7</v>
@@ -4614,41 +4511,41 @@
       <c r="J71">
         <v>113.4</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K71" s="3">
         <f t="shared" ref="K71:K84" si="40">(E71*J71)/7</f>
         <v>113.4</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L71" s="3">
         <f t="shared" ref="L71:L84" si="41">(F71*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="M71" s="4">
+      <c r="M71" s="3">
         <f t="shared" ref="M71:M84" si="42">(G71*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="N71" s="4">
+      <c r="N71" s="3">
         <f t="shared" ref="N71:N84" si="43">(H71*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="O71" s="3" t="s">
-        <v>45</v>
+      <c r="O71" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="Q71" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4668,41 +4565,41 @@
       <c r="J72">
         <v>113.4</v>
       </c>
-      <c r="K72" s="4">
+      <c r="K72" s="3">
         <f t="shared" si="40"/>
         <v>16.2</v>
       </c>
-      <c r="L72" s="4">
+      <c r="L72" s="3">
         <f t="shared" si="41"/>
         <v>32.4</v>
       </c>
-      <c r="M72" s="4">
+      <c r="M72" s="3">
         <f t="shared" si="42"/>
         <v>64.8</v>
       </c>
-      <c r="N72" s="4">
+      <c r="N72" s="3">
         <f t="shared" si="43"/>
         <v>64.8</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>45</v>
+      <c r="O72" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="Q72" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4722,41 +4619,41 @@
       <c r="J73">
         <v>113.4</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K73" s="3">
         <f t="shared" si="40"/>
         <v>16.2</v>
       </c>
-      <c r="L73" s="4">
+      <c r="L73" s="3">
         <f t="shared" si="41"/>
         <v>32.4</v>
       </c>
-      <c r="M73" s="4">
+      <c r="M73" s="3">
         <f t="shared" si="42"/>
         <v>32.4</v>
       </c>
-      <c r="N73" s="4">
+      <c r="N73" s="3">
         <f t="shared" si="43"/>
         <v>32.4</v>
       </c>
-      <c r="O73" s="3" t="s">
-        <v>45</v>
+      <c r="O73" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="Q73" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -4776,41 +4673,41 @@
       <c r="J74">
         <v>113.4</v>
       </c>
-      <c r="K74" s="4">
+      <c r="K74" s="3">
         <f t="shared" si="40"/>
         <v>81</v>
       </c>
-      <c r="L74" s="4">
+      <c r="L74" s="3">
         <f t="shared" si="41"/>
         <v>162</v>
       </c>
-      <c r="M74" s="4">
+      <c r="M74" s="3">
         <f t="shared" si="42"/>
         <v>226.8</v>
       </c>
-      <c r="N74" s="4">
+      <c r="N74" s="3">
         <f t="shared" si="43"/>
         <v>226.8</v>
       </c>
-      <c r="O74" s="3" t="s">
-        <v>47</v>
+      <c r="O74" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="Q74" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4830,41 +4727,41 @@
       <c r="J75">
         <v>113.4</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K75" s="3">
         <f t="shared" si="40"/>
         <v>16.2</v>
       </c>
-      <c r="L75" s="4">
+      <c r="L75" s="3">
         <f t="shared" si="41"/>
         <v>32.4</v>
       </c>
-      <c r="M75" s="4">
+      <c r="M75" s="3">
         <f t="shared" si="42"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="N75" s="4">
+      <c r="N75" s="3">
         <f t="shared" si="43"/>
         <v>97.200000000000017</v>
       </c>
-      <c r="O75" s="3" t="s">
-        <v>47</v>
+      <c r="O75" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="Q75" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4884,41 +4781,41 @@
       <c r="J76">
         <v>113.4</v>
       </c>
-      <c r="K76" s="4">
+      <c r="K76" s="3">
         <f t="shared" si="40"/>
         <v>16.2</v>
       </c>
-      <c r="L76" s="4">
+      <c r="L76" s="3">
         <f t="shared" si="41"/>
         <v>32.4</v>
       </c>
-      <c r="M76" s="4">
+      <c r="M76" s="3">
         <f t="shared" si="42"/>
         <v>64.8</v>
       </c>
-      <c r="N76" s="4">
+      <c r="N76" s="3">
         <f t="shared" si="43"/>
         <v>64.8</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>47</v>
+      <c r="O76" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="Q76" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4938,41 +4835,41 @@
       <c r="J77">
         <v>113.4</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K77" s="3">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="L77" s="4">
+      <c r="L77" s="3">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M77" s="4">
+      <c r="M77" s="3">
         <f t="shared" si="42"/>
         <v>32.4</v>
       </c>
-      <c r="N77" s="4">
+      <c r="N77" s="3">
         <f t="shared" si="43"/>
         <v>32.4</v>
       </c>
-      <c r="O77" s="3" t="s">
-        <v>47</v>
+      <c r="O77" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="Q77" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4992,41 +4889,41 @@
       <c r="J78">
         <v>113.4</v>
       </c>
-      <c r="K78" s="4">
+      <c r="K78" s="3">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="L78" s="4">
+      <c r="L78" s="3">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M78" s="4">
+      <c r="M78" s="3">
         <f t="shared" si="42"/>
         <v>32.4</v>
       </c>
-      <c r="N78" s="4">
+      <c r="N78" s="3">
         <f t="shared" si="43"/>
         <v>32.4</v>
       </c>
-      <c r="O78" s="3" t="s">
-        <v>47</v>
+      <c r="O78" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="Q78" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D79" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5046,41 +4943,41 @@
       <c r="J79">
         <v>113.4</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K79" s="3">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="L79" s="4">
+      <c r="L79" s="3">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M79" s="4">
+      <c r="M79" s="3">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N79" s="4">
+      <c r="N79" s="3">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="O79" s="3" t="s">
-        <v>47</v>
+      <c r="O79" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="Q79" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B80" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -5100,41 +4997,41 @@
       <c r="J80">
         <v>113.4</v>
       </c>
-      <c r="K80" s="4">
+      <c r="K80" s="3">
         <f t="shared" si="40"/>
         <v>32.4</v>
       </c>
-      <c r="L80" s="4">
+      <c r="L80" s="3">
         <f t="shared" si="41"/>
         <v>64.8</v>
       </c>
-      <c r="M80" s="4">
+      <c r="M80" s="3">
         <f t="shared" si="42"/>
         <v>162</v>
       </c>
-      <c r="N80" s="4">
+      <c r="N80" s="3">
         <f t="shared" si="43"/>
         <v>162</v>
       </c>
-      <c r="O80" s="3" t="s">
-        <v>50</v>
+      <c r="O80" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="Q80" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5154,41 +5051,41 @@
       <c r="J81">
         <v>113.4</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K81" s="3">
         <f t="shared" si="40"/>
         <v>16.2</v>
       </c>
-      <c r="L81" s="4">
+      <c r="L81" s="3">
         <f t="shared" si="41"/>
         <v>32.4</v>
       </c>
-      <c r="M81" s="4">
+      <c r="M81" s="3">
         <f t="shared" si="42"/>
         <v>129.6</v>
       </c>
-      <c r="N81" s="4">
+      <c r="N81" s="3">
         <f t="shared" si="43"/>
         <v>129.6</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>50</v>
+      <c r="O81" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="Q81" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5208,41 +5105,41 @@
       <c r="J82">
         <v>113.4</v>
       </c>
-      <c r="K82" s="4">
+      <c r="K82" s="3">
         <f t="shared" si="40"/>
         <v>16.2</v>
       </c>
-      <c r="L82" s="4">
+      <c r="L82" s="3">
         <f t="shared" si="41"/>
         <v>32.4</v>
       </c>
-      <c r="M82" s="4">
+      <c r="M82" s="3">
         <f t="shared" si="42"/>
         <v>64.8</v>
       </c>
-      <c r="N82" s="4">
+      <c r="N82" s="3">
         <f t="shared" si="43"/>
         <v>64.8</v>
       </c>
-      <c r="O82" s="3" t="s">
-        <v>50</v>
+      <c r="O82" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="Q82" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5262,41 +5159,41 @@
       <c r="J83">
         <v>113.4</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K83" s="3">
         <f t="shared" si="40"/>
         <v>16.2</v>
       </c>
-      <c r="L83" s="4">
+      <c r="L83" s="3">
         <f t="shared" si="41"/>
         <v>32.4</v>
       </c>
-      <c r="M83" s="4">
+      <c r="M83" s="3">
         <f t="shared" si="42"/>
         <v>64.8</v>
       </c>
-      <c r="N83" s="4">
+      <c r="N83" s="3">
         <f t="shared" si="43"/>
         <v>64.8</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>50</v>
+      <c r="O83" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="Q83" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5316,41 +5213,41 @@
       <c r="J84">
         <v>113.4</v>
       </c>
-      <c r="K84" s="4">
+      <c r="K84" s="3">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="L84" s="4">
+      <c r="L84" s="3">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="M84" s="4">
+      <c r="M84" s="3">
         <f t="shared" si="42"/>
         <v>32.4</v>
       </c>
-      <c r="N84" s="4">
+      <c r="N84" s="3">
         <f t="shared" si="43"/>
         <v>32.4</v>
       </c>
-      <c r="O84" s="3" t="s">
-        <v>50</v>
+      <c r="O84" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="Q84" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E85">
         <v>7</v>
@@ -5370,41 +5267,41 @@
       <c r="J85">
         <v>113.4</v>
       </c>
-      <c r="K85" s="4">
+      <c r="K85" s="3">
         <f t="shared" ref="K85:K93" si="44">(E85*J85)/7</f>
         <v>113.4</v>
       </c>
-      <c r="L85" s="4">
+      <c r="L85" s="3">
         <f t="shared" ref="L85:L93" si="45">(F85*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="M85" s="4">
+      <c r="M85" s="3">
         <f t="shared" ref="M85:M93" si="46">(G85*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="N85" s="4">
+      <c r="N85" s="3">
         <f t="shared" ref="N85:N93" si="47">(H85*$I$4)/7</f>
         <v>226.8</v>
       </c>
-      <c r="O85" s="3" t="s">
-        <v>92</v>
+      <c r="O85" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="Q85" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D86" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5424,41 +5321,41 @@
       <c r="J86">
         <v>113.4</v>
       </c>
-      <c r="K86" s="4">
+      <c r="K86" s="3">
         <f t="shared" si="44"/>
         <v>16.2</v>
       </c>
-      <c r="L86" s="4">
+      <c r="L86" s="3">
         <f t="shared" si="45"/>
         <v>32.4</v>
       </c>
-      <c r="M86" s="4">
+      <c r="M86" s="3">
         <f t="shared" si="46"/>
         <v>32.4</v>
       </c>
-      <c r="N86" s="4">
+      <c r="N86" s="3">
         <f t="shared" si="47"/>
         <v>32.4</v>
       </c>
-      <c r="O86" s="3" t="s">
-        <v>92</v>
+      <c r="O86" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="Q86" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5478,42 +5375,42 @@
       <c r="J87">
         <v>113.4</v>
       </c>
-      <c r="K87" s="4">
+      <c r="K87" s="3">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="L87" s="4">
+      <c r="L87" s="3">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M87" s="4">
+      <c r="M87" s="3">
         <f t="shared" si="46"/>
         <v>32.4</v>
       </c>
-      <c r="N87" s="4">
+      <c r="N87" s="3">
         <f t="shared" si="47"/>
         <v>32.4</v>
       </c>
-      <c r="O87" s="3" t="s">
-        <v>92</v>
+      <c r="O87" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="Q87" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s">
         <v>72</v>
       </c>
-      <c r="C88" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" t="s">
-        <v>83</v>
-      </c>
       <c r="E88">
         <v>0</v>
       </c>
@@ -5532,41 +5429,41 @@
       <c r="J88">
         <v>113.4</v>
       </c>
-      <c r="K88" s="4">
+      <c r="K88" s="3">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="L88" s="4">
+      <c r="L88" s="3">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M88" s="4">
+      <c r="M88" s="3">
         <f t="shared" si="46"/>
         <v>32.4</v>
       </c>
-      <c r="N88" s="4">
+      <c r="N88" s="3">
         <f t="shared" si="47"/>
         <v>32.4</v>
       </c>
-      <c r="O88" s="3" t="s">
-        <v>92</v>
+      <c r="O88" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="Q88" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -5586,41 +5483,41 @@
       <c r="J89">
         <v>113.4</v>
       </c>
-      <c r="K89" s="4">
+      <c r="K89" s="3">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="L89" s="4">
+      <c r="L89" s="3">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M89" s="4">
+      <c r="M89" s="3">
         <f t="shared" si="46"/>
         <v>32.4</v>
       </c>
-      <c r="N89" s="4">
+      <c r="N89" s="3">
         <f t="shared" si="47"/>
         <v>32.4</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>92</v>
+      <c r="O89" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="Q89" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B90" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C90" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5640,41 +5537,41 @@
       <c r="J90">
         <v>113.4</v>
       </c>
-      <c r="K90" s="4">
+      <c r="K90" s="3">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="L90" s="4">
+      <c r="L90" s="3">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M90" s="4">
+      <c r="M90" s="3">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="N90" s="4">
+      <c r="N90" s="3">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="O90" s="3" t="s">
-        <v>92</v>
+      <c r="O90" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="Q90" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C91" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D91" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5694,41 +5591,41 @@
       <c r="J91">
         <v>113.4</v>
       </c>
-      <c r="K91" s="4">
+      <c r="K91" s="3">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="L91" s="4">
+      <c r="L91" s="3">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M91" s="4">
+      <c r="M91" s="3">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="N91" s="4">
+      <c r="N91" s="3">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>92</v>
+      <c r="O91" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="Q91" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -5748,41 +5645,41 @@
       <c r="J92">
         <v>113.4</v>
       </c>
-      <c r="K92" s="4">
+      <c r="K92" s="3">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="L92" s="4">
+      <c r="L92" s="3">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M92" s="4">
+      <c r="M92" s="3">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="N92" s="4">
+      <c r="N92" s="3">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="O92" s="3" t="s">
-        <v>92</v>
+      <c r="O92" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="Q92" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C93" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D93" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5802,41 +5699,41 @@
       <c r="J93">
         <v>113.4</v>
       </c>
-      <c r="K93" s="4">
+      <c r="K93" s="3">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="L93" s="4">
+      <c r="L93" s="3">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M93" s="4">
+      <c r="M93" s="3">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="N93" s="4">
+      <c r="N93" s="3">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="O93" s="3" t="s">
-        <v>92</v>
+      <c r="O93" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="Q93" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E94">
         <v>2</v>
@@ -5856,41 +5753,41 @@
       <c r="J94">
         <v>113.4</v>
       </c>
-      <c r="K94" s="4">
+      <c r="K94" s="3">
         <f t="shared" ref="K94:K100" si="48">(E94*J94)/7</f>
         <v>32.4</v>
       </c>
-      <c r="L94" s="4">
+      <c r="L94" s="3">
         <f t="shared" ref="L94:N100" si="49">(F94*$I$4)/7</f>
         <v>64.8</v>
       </c>
-      <c r="M94" s="4">
+      <c r="M94" s="3">
         <f t="shared" si="49"/>
         <v>129.6</v>
       </c>
-      <c r="N94" s="4">
+      <c r="N94" s="3">
         <f t="shared" si="49"/>
         <v>129.6</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>93</v>
+      <c r="O94" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="Q94" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5910,41 +5807,41 @@
       <c r="J95">
         <v>113.4</v>
       </c>
-      <c r="K95" s="4">
+      <c r="K95" s="3">
         <f t="shared" si="48"/>
         <v>16.2</v>
       </c>
-      <c r="L95" s="4">
+      <c r="L95" s="3">
         <f t="shared" si="49"/>
         <v>32.4</v>
       </c>
-      <c r="M95" s="4">
+      <c r="M95" s="3">
         <f t="shared" si="49"/>
         <v>64.8</v>
       </c>
-      <c r="N95" s="4">
+      <c r="N95" s="3">
         <f t="shared" si="49"/>
         <v>64.8</v>
       </c>
-      <c r="O95" s="3" t="s">
-        <v>93</v>
+      <c r="O95" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="Q95" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5964,41 +5861,41 @@
       <c r="J96">
         <v>113.4</v>
       </c>
-      <c r="K96" s="4">
+      <c r="K96" s="3">
         <f t="shared" si="48"/>
         <v>16.2</v>
       </c>
-      <c r="L96" s="4">
+      <c r="L96" s="3">
         <f t="shared" si="49"/>
         <v>32.4</v>
       </c>
-      <c r="M96" s="4">
+      <c r="M96" s="3">
         <f t="shared" si="49"/>
         <v>64.8</v>
       </c>
-      <c r="N96" s="4">
+      <c r="N96" s="3">
         <f t="shared" si="49"/>
         <v>64.8</v>
       </c>
-      <c r="O96" s="3" t="s">
-        <v>93</v>
+      <c r="O96" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="Q96" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -6018,41 +5915,41 @@
       <c r="J97">
         <v>113.4</v>
       </c>
-      <c r="K97" s="4">
+      <c r="K97" s="3">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="L97" s="4">
+      <c r="L97" s="3">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="M97" s="4">
+      <c r="M97" s="3">
         <f t="shared" si="49"/>
         <v>32.4</v>
       </c>
-      <c r="N97" s="4">
+      <c r="N97" s="3">
         <f t="shared" si="49"/>
         <v>32.4</v>
       </c>
-      <c r="O97" s="3" t="s">
-        <v>93</v>
+      <c r="O97" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="Q97" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -6072,41 +5969,41 @@
       <c r="J98">
         <v>113.4</v>
       </c>
-      <c r="K98" s="4">
+      <c r="K98" s="3">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="L98" s="4">
+      <c r="L98" s="3">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="M98" s="4">
+      <c r="M98" s="3">
         <f t="shared" si="49"/>
         <v>32.4</v>
       </c>
-      <c r="N98" s="4">
+      <c r="N98" s="3">
         <f t="shared" si="49"/>
         <v>32.4</v>
       </c>
-      <c r="O98" s="3" t="s">
-        <v>93</v>
+      <c r="O98" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="Q98" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6126,41 +6023,41 @@
       <c r="J99">
         <v>113.4</v>
       </c>
-      <c r="K99" s="4">
+      <c r="K99" s="3">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="L99" s="4">
+      <c r="L99" s="3">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="M99" s="4">
+      <c r="M99" s="3">
         <f t="shared" si="49"/>
         <v>32.4</v>
       </c>
-      <c r="N99" s="4">
+      <c r="N99" s="3">
         <f t="shared" si="49"/>
         <v>32.4</v>
       </c>
-      <c r="O99" s="3" t="s">
-        <v>93</v>
+      <c r="O99" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="Q99" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -6180,27 +6077,27 @@
       <c r="J100">
         <v>113.4</v>
       </c>
-      <c r="K100" s="4">
+      <c r="K100" s="3">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="L100" s="4">
+      <c r="L100" s="3">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="M100" s="4">
+      <c r="M100" s="3">
         <f t="shared" si="49"/>
         <v>32.4</v>
       </c>
-      <c r="N100" s="4">
+      <c r="N100" s="3">
         <f t="shared" si="49"/>
         <v>32.4</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>93</v>
+      <c r="O100" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="Q100" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -6312,574 +6209,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AAC1C8-6257-46A9-BEE3-06862CA96819}">
-  <dimension ref="A1:I23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="13">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <f>G1/100</f>
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <f>H1*A1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5">
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H23" si="0">G2/100</f>
-        <v>0.08</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I17" si="1">H2*A2</f>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5">
-        <v>33</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0.33</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>4</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>11</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="5">
-        <v>9</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f>G18/100</f>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f>H18*A18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>6</v>
-      </c>
-      <c r="G19" s="5">
-        <v>17</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>0.17</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ref="I19:I23" si="2">H19*A19</f>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
-        <v>100</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>2</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>3</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFF440A-E1DE-496F-B109-C9AF979F4875}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://www.fda.gov/media/102331/download?attachment" xr:uid="{7723FE36-954E-4734-BE49-067223D904D2}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://www.fda.gov/media/102331/download?attachment" xr:uid="{B6E4498F-9AC0-4763-8891-D176600E93F9}"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://www.fda.gov/media/102331/download?attachment" xr:uid="{AFF2B46E-0FCB-4670-AB5D-BEB176FFF0A2}"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://www.fda.gov/media/102331/download?attachment" xr:uid="{E6DD451A-3811-4F68-8AF3-6C4E4B46B07E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/OEHHA_consumption_advisories.xlsx
+++ b/OEHHA_consumption_advisories.xlsx
@@ -683,7 +683,7 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
